--- a/config_12.01/sys_by3d_jchd_config.xlsx
+++ b/config_12.01/sys_by3d_jchd_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>line|行号</t>
   </si>
@@ -51,13 +51,17 @@
   <si>
     <t>"sys_act_base",</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_027_jqshl",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +83,21 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -133,7 +152,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,6 +161,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -419,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -510,6 +532,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
